--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">car wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git</t>
   </si>
   <si>
     <t xml:space="preserve">ubuntu shutdown</t>
@@ -221,13 +218,13 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -426,28 +423,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -34,12 +34,27 @@
     <t xml:space="preserve">Date </t>
   </si>
   <si>
+    <t xml:space="preserve">STEPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work Daily</t>
   </si>
   <si>
     <t xml:space="preserve">Bus map</t>
   </si>
   <si>
+    <t xml:space="preserve">install inkspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try first example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply to my bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transform to schemas</t>
+  </si>
+  <si>
     <t xml:space="preserve">file by php bash </t>
   </si>
   <si>
@@ -73,16 +88,52 @@
     <t xml:space="preserve">BI</t>
   </si>
   <si>
+    <t xml:space="preserve">clean data using marcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transform to addons</t>
+  </si>
+  <si>
     <t xml:space="preserve">guide reception</t>
   </si>
   <si>
     <t xml:space="preserve">guide approbation</t>
   </si>
   <si>
+    <t xml:space="preserve">go beach</t>
+  </si>
+  <si>
     <t xml:space="preserve">car wash</t>
   </si>
   <si>
-    <t xml:space="preserve">ubuntu shutdown</t>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaux jardin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaux maison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuntu 16.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until get solved</t>
   </si>
 </sst>
 </file>
@@ -92,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,13 +174,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,12 +234,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -215,19 +259,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,13 +291,16 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -260,10 +311,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,7 +334,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -282,7 +345,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -293,7 +356,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -304,7 +367,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -315,7 +378,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -326,7 +389,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -340,7 +403,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -351,7 +414,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -362,7 +425,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -373,7 +436,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -384,10 +447,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2</v>
@@ -406,7 +479,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -417,26 +490,89 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="B21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
